--- a/backend/data/student_k16.xlsx
+++ b/backend/data/student_k16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\credit-based-course-management\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\dkhp-iuh-edu-vn\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8D6EB-639F-441B-8222-EE232C12B423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67422000-1762-4416-A3AF-628B5F9374EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{02EF117C-553B-4DD7-84CE-F60C11302335}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -144,8 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -488,7 +487,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -547,22 +546,18 @@
         <f>"0395906032"</f>
         <v>0395906032</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="E2" s="7" t="str">
         <f>"sson12131415@gmail.com"</f>
         <v>sson12131415@gmail.com</v>
       </c>
       <c r="F2" s="2" t="str">
         <f ca="1">CONCATENATE("Số ", RANDBETWEEN(1, 100), ", ", CHOOSE(RANDBETWEEN(1,3), "Đường A", "Đường B", "Đường C"), ", ", CHOOSE(RANDBETWEEN(1,3), "Phường X", "Phường Y", "Phường Z"), ", ", "Quận ", CHOOSE(RANDBETWEEN(1,3), "A", "B", "C"), ", ", "Thành phố ", CHOOSE(RANDBETWEEN(1,3), "Hà Nội", "TP.HCM", "Đà Nẵng"))</f>
-        <v>Số 12, Đường C, Phường X, Quận B, Thành phố TP.HCM</v>
-      </c>
-      <c r="G2" s="7" t="str">
+        <v>Số 65, Đường B, Phường Y, Quận C, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G2" s="6" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,5),"6646f179-0d8d-4a09-b14c-40c254a40a9f","107959e6-7d1b-46c9-b5cd-25e73ba1e3a2","84d1b53a-30a3-486b-bc27-45624f4c3c57","6f6d2d18-f329-4f68-8e95-554eb74d5d68","518cc4b5-4b38-41de-8499-1d942c665637")</f>
         <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -570,7 +565,7 @@
       </c>
       <c r="B3" s="2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,4),"Nguyễn","Phạm","Võ","Hoàng")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,2),"Văn","Thị")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,9),"Mẹt","Đẹt","Tũn","Vui","Hài","Tí","Hư","Cu","Tèo")</f>
-        <v>Hoàng Thị Tèo</v>
+        <v>Võ Thị Đẹt</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C29" ca="1" si="0">RANDBETWEEN(0,1)</f>
@@ -578,32 +573,28 @@
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D29" ca="1" si="1">CONCATENATE(RANDBETWEEN(0,0), RANDBETWEEN(3,3), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9))</f>
-        <v>0347600260</v>
+        <v>0394031346</v>
       </c>
       <c r="E3" s="3" t="str">
         <f ca="1">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
-        <v>user711@gmail.com</v>
+        <v>user776@gmail.com</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F29" ca="1" si="2">CONCATENATE("Số ", RANDBETWEEN(1, 100), ", ", CHOOSE(RANDBETWEEN(1,3), "Đường A", "Đường B", "Đường C"), ", ", CHOOSE(RANDBETWEEN(1,3), "Phường X", "Phường Y", "Phường Z"), ", ", "Quận ", CHOOSE(RANDBETWEEN(1,3), "A", "B", "C"), ", ", "Thành phố ", CHOOSE(RANDBETWEEN(1,3), "Hà Nội", "TP.HCM", "Đà Nẵng"))</f>
-        <v>Số 3, Đường C, Phường Z, Quận C, Thành phố Hà Nội</v>
-      </c>
-      <c r="G3" s="7" t="str">
+        <v>Số 93, Đường B, Phường X, Quận A, Thành phố TP.HCM</v>
+      </c>
+      <c r="G3" s="6" t="str">
         <f t="shared" ref="G3:G29" ca="1" si="3">CHOOSE(RANDBETWEEN(1,5),"6646f179-0d8d-4a09-b14c-40c254a40a9f","107959e6-7d1b-46c9-b5cd-25e73ba1e3a2","84d1b53a-30a3-486b-bc27-45624f4c3c57","6f6d2d18-f329-4f68-8e95-554eb74d5d68","518cc4b5-4b38-41de-8499-1d942c665637")</f>
-        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f t="shared" ref="B3:B29" ca="1" si="4">CHOOSE(RANDBETWEEN(1,4),"Nguyễn","Phạm","Võ","Hoàng")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,2),"Văn","Thị")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,9),"Mẹt","Đẹt","Tũn","Vui","Hài","Tí","Hư","Cu","Tèo")</f>
-        <v>Võ Văn Tí</v>
+        <f t="shared" ref="B4:B29" ca="1" si="4">CHOOSE(RANDBETWEEN(1,4),"Nguyễn","Phạm","Võ","Hoàng")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,2),"Văn","Thị")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,9),"Mẹt","Đẹt","Tũn","Vui","Hài","Tí","Hư","Cu","Tèo")</f>
+        <v>Hoàng Thị Vui</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -611,24 +602,20 @@
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0312170136</v>
+        <v>0332747476</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E29" ca="1" si="5">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
-        <v>user916@gmail.com</v>
+        <f ca="1">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
+        <v>user740@gmail.com</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 35, Đường C, Phường Y, Quận C, Thành phố Hà Nội</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+        <v>Số 44, Đường A, Phường Z, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -636,32 +623,28 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Phạm Thị Hư</v>
+        <v>Nguyễn Thị Tèo</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0380894723</v>
+        <v>0319420749</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>user367@gmail.com</v>
+        <f t="shared" ref="E4:E29" ca="1" si="5">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
+        <v>user857@gmail.com</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 36, Đường B, Phường Z, Quận B, Thành phố Hà Nội</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>Số 91, Đường C, Phường Y, Quận A, Thành phố Hà Nội</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -669,32 +652,28 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Thị Tèo</v>
+        <v>Phạm Văn Hư</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0323238425</v>
+        <v>0333767479</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user975@gmail.com</v>
+        <v>user952@gmail.com</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 38, Đường A, Phường X, Quận C, Thành phố Đà Nẵng</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+        <v>Số 44, Đường A, Phường Z, Quận C, Thành phố TP.HCM</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6646f179-0d8d-4a09-b14c-40c254a40a9f</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -702,32 +681,28 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Thị Vui</v>
+        <v>Hoàng Văn Mẹt</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0336442827</v>
+        <v>0333918480</v>
       </c>
       <c r="E7" s="3" t="str">
         <f ca="1">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
-        <v>user264@gmail.com</v>
+        <v>user342@gmail.com</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 97, Đường C, Phường Y, Quận A, Thành phố Hà Nội</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>6646f179-0d8d-4a09-b14c-40c254a40a9f</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+        <v>Số 82, Đường C, Phường X, Quận A, Thành phố Hà Nội</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -735,7 +710,7 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Võ Văn Hư</v>
+        <v>Võ Văn Cu</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -743,24 +718,20 @@
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0357954313</v>
+        <v>0358223455</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>user273@gmail.com</v>
+        <f ca="1">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
+        <v>user362@gmail.com</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 30, Đường C, Phường X, Quận A, Thành phố Đà Nẵng</v>
-      </c>
-      <c r="G8" s="7" t="str">
+        <v>Số 17, Đường B, Phường Y, Quận A, Thành phố Hà Nội</v>
+      </c>
+      <c r="G8" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -768,32 +739,28 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Võ Thị Mẹt</v>
+        <v>Nguyễn Thị Hài</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0346550019</v>
+        <v>0375073758</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user693@gmail.com</v>
+        <v>user499@gmail.com</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 25, Đường B, Phường X, Quận A, Thành phố Đà Nẵng</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+        <v>Số 59, Đường A, Phường X, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6f6d2d18-f329-4f68-8e95-554eb74d5d68</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -801,32 +768,28 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Thị Tí</v>
+        <v>Hoàng Thị Vui</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0307491133</v>
+        <v>0358702469</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user685@gmail.com</v>
+        <v>user147@gmail.com</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 52, Đường A, Phường Y, Quận B, Thành phố TP.HCM</v>
-      </c>
-      <c r="G10" s="7" t="str">
+        <v>Số 5, Đường A, Phường X, Quận A, Thành phố Hà Nội</v>
+      </c>
+      <c r="G10" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -834,32 +797,28 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Văn Vui</v>
+        <v>Hoàng Văn Đẹt</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0345780641</v>
+        <v>0355259896</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user445@gmail.com</v>
+        <v>user785@gmail.com</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 90, Đường C, Phường Z, Quận B, Thành phố Hà Nội</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+        <v>Số 61, Đường C, Phường X, Quận A, Thành phố TP.HCM</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -867,32 +826,28 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Văn Hư</v>
+        <v>Phạm Văn Tí</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0317629410</v>
+        <v>0323471058</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user754@gmail.com</v>
+        <v>user139@gmail.com</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 90, Đường C, Phường X, Quận B, Thành phố Đà Nẵng</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+        <v>Số 25, Đường C, Phường Z, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -900,32 +855,28 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Phạm Thị Vui</v>
+        <v>Võ Thị Cu</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0336796890</v>
+        <v>0318578733</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user371@gmail.com</v>
+        <v>user164@gmail.com</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 2, Đường C, Phường X, Quận A, Thành phố TP.HCM</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+        <v>Số 78, Đường B, Phường X, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6f6d2d18-f329-4f68-8e95-554eb74d5d68</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -933,7 +884,7 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Văn Cu</v>
+        <v>Võ Văn Tèo</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -941,24 +892,20 @@
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0332266262</v>
+        <v>0376720699</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user935@gmail.com</v>
+        <v>user991@gmail.com</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 64, Đường B, Phường Y, Quận C, Thành phố TP.HCM</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+        <v>Số 62, Đường C, Phường X, Quận C, Thành phố Hà Nội</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -966,32 +913,28 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Văn Tèo</v>
+        <v>Hoàng Văn Cu</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0301014601</v>
+        <v>0366632314</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user554@gmail.com</v>
+        <v>user192@gmail.com</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 37, Đường C, Phường X, Quận C, Thành phố Hà Nội</v>
-      </c>
-      <c r="G15" s="7" t="str">
+        <v>Số 12, Đường C, Phường X, Quận C, Thành phố Hà Nội</v>
+      </c>
+      <c r="G15" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -999,40 +942,36 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Thị Hư</v>
+        <v>Hoàng Văn Vui</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0350284481</v>
+        <v>0398869410</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user981@gmail.com</v>
+        <v>user902@gmail.com</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 9, Đường A, Phường X, Quận A, Thành phố TP.HCM</v>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 76, Đường A, Phường X, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Thị Mẹt</v>
+        <v>Phạm Thị Hài</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -1040,98 +979,86 @@
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0370709430</v>
+        <v>0321036312</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user679@gmail.com</v>
+        <v>user118@gmail.com</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 92, Đường A, Phường Z, Quận A, Thành phố TP.HCM</v>
-      </c>
-      <c r="G17" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 95, Đường A, Phường Z, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6646f179-0d8d-4a09-b14c-40c254a40a9f</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Thị Hư</v>
+        <v>Hoàng Văn Vui</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0397830551</v>
+        <v>0322479981</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user626@gmail.com</v>
+        <v>user445@gmail.com</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 78, Đường B, Phường X, Quận A, Thành phố Đà Nẵng</v>
-      </c>
-      <c r="G18" s="7" t="str">
+        <v>Số 98, Đường B, Phường Z, Quận A, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G18" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Thị Cu</v>
+        <v>Hoàng Thị Cu</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0374746046</v>
+        <v>0343882165</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user244@gmail.com</v>
+        <v>user617@gmail.com</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 70, Đường B, Phường Y, Quận B, Thành phố Hà Nội</v>
-      </c>
-      <c r="G19" s="7" t="str">
+        <v>Số 23, Đường B, Phường Z, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G19" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Võ Văn Hài</v>
+        <v>Phạm Thị Hài</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -1139,32 +1066,28 @@
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0302388716</v>
+        <v>0399077981</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user350@gmail.com</v>
+        <v>user416@gmail.com</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 40, Đường A, Phường Z, Quận A, Thành phố TP.HCM</v>
-      </c>
-      <c r="G20" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 79, Đường C, Phường X, Quận C, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6f6d2d18-f329-4f68-8e95-554eb74d5d68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Thị Hư</v>
+        <v>Võ Thị Vui</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -1172,65 +1095,57 @@
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0322060088</v>
+        <v>0375051740</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user667@gmail.com</v>
+        <v>user333@gmail.com</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 3, Đường A, Phường Z, Quận C, Thành phố Hà Nội</v>
-      </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>6f6d2d18-f329-4f68-8e95-554eb74d5d68</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 41, Đường A, Phường Z, Quận B, Thành phố TP.HCM</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Văn Cu</v>
+        <v>Hoàng Thị Cu</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0324817374</v>
+        <v>0353685876</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user716@gmail.com</v>
+        <v>user530@gmail.com</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 38, Đường C, Phường Z, Quận B, Thành phố Hà Nội</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 47, Đường B, Phường Z, Quận C, Thành phố TP.HCM</v>
+      </c>
+      <c r="G22" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6646f179-0d8d-4a09-b14c-40c254a40a9f</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Phạm Thị Cu</v>
+        <v>Võ Thị Hài</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -1238,65 +1153,57 @@
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0364678174</v>
+        <v>0390291206</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user325@gmail.com</v>
+        <v>user560@gmail.com</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 91, Đường B, Phường Z, Quận A, Thành phố TP.HCM</v>
-      </c>
-      <c r="G23" s="7" t="str">
+        <v>Số 47, Đường C, Phường X, Quận B, Thành phố Hà Nội</v>
+      </c>
+      <c r="G23" s="6" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Thị Vui</v>
+        <v>Võ Văn Đẹt</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0379511208</v>
+        <v>0373365340</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user179@gmail.com</v>
+        <v>user916@gmail.com</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 54, Đường A, Phường Z, Quận A, Thành phố TP.HCM</v>
-      </c>
-      <c r="G24" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 63, Đường A, Phường Y, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hoàng Văn Hài</v>
+        <v>Nguyễn Văn Tũn</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -1304,123 +1211,115 @@
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0388907549</v>
+        <v>0327702677</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user221@gmail.com</v>
+        <v>user211@gmail.com</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 75, Đường A, Phường Z, Quận A, Thành phố Đà Nẵng</v>
-      </c>
-      <c r="G25" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>84d1b53a-30a3-486b-bc27-45624f4c3c57</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 24, Đường A, Phường Y, Quận C, Thành phố Hà Nội</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Võ Thị Mẹt</v>
+        <v>Phạm Văn Đẹt</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0345229462</v>
+        <v>0332270763</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user615@gmail.com</v>
+        <v>user763@gmail.com</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 14, Đường B, Phường Z, Quận A, Thành phố Hà Nội</v>
-      </c>
-      <c r="G26" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 19, Đường A, Phường Z, Quận B, Thành phố Đà Nẵng</v>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6f6d2d18-f329-4f68-8e95-554eb74d5d68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Nguyễn Văn Hài</v>
+        <v>Võ Văn Mẹt</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0386739997</v>
+        <v>0382419486</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user512@gmail.com</v>
+        <v>user469@gmail.com</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 52, Đường B, Phường X, Quận C, Thành phố TP.HCM</v>
-      </c>
-      <c r="G27" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>107959e6-7d1b-46c9-b5cd-25e73ba1e3a2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 75, Đường C, Phường Y, Quận A, Thành phố TP.HCM</v>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6f6d2d18-f329-4f68-8e95-554eb74d5d68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Phạm Văn Mẹt</v>
+        <v>Phạm Văn Hư</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0365885090</v>
+        <v>0310373603</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user300@gmail.com</v>
+        <v>user268@gmail.com</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 63, Đường B, Phường X, Quận A, Thành phố Hà Nội</v>
-      </c>
-      <c r="G28" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Số 80, Đường A, Phường Z, Quận C, Thành phố Hà Nội</v>
+      </c>
+      <c r="G28" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6646f179-0d8d-4a09-b14c-40c254a40a9f</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Võ Văn Hư</v>
+        <v>Nguyễn Thị Đẹt</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -1428,19 +1327,19 @@
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0322875863</v>
+        <v>0324005616</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user560@gmail.com</v>
+        <v>user671@gmail.com</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Số 2, Đường A, Phường Y, Quận C, Thành phố Hà Nội</v>
-      </c>
-      <c r="G29" s="7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>518cc4b5-4b38-41de-8499-1d942c665637</v>
+        <v>Số 82, Đường A, Phường Z, Quận B, Thành phố TP.HCM</v>
+      </c>
+      <c r="G29" s="6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6f6d2d18-f329-4f68-8e95-554eb74d5d68</v>
       </c>
     </row>
   </sheetData>
